--- a/Questions.xlsx
+++ b/Questions.xlsx
@@ -24,24 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="140">
   <si>
     <t>Questions</t>
   </si>
   <si>
-    <t>Answers</t>
-  </si>
-  <si>
     <t>Which Disney film does the song 'Circle of Life' come from?</t>
-  </si>
-  <si>
-    <t>Who made the quote 'I'll be back' famous?</t>
-  </si>
-  <si>
-    <t>Who starred as Sandy in the first Grease movie?</t>
-  </si>
-  <si>
-    <t>What is the name of the actor who played the role of Harry Potter in the film series?</t>
   </si>
   <si>
     <t>How many 'Rocky' films did Sylvester Stallone star in?</t>
@@ -63,13 +51,544 @@
   </si>
   <si>
     <t>What was the name of the island on which King Kong was discovered in the original 1933 movie?</t>
+  </si>
+  <si>
+    <t>In the Friday the 13th movies, what is the name of the masked killer?</t>
+  </si>
+  <si>
+    <t>A. Freddy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. Ape Island
+B. Borneo
+C. Monster Island
+D. Skull Island </t>
+  </si>
+  <si>
+    <t>Options</t>
+  </si>
+  <si>
+    <t>Answer</t>
+  </si>
+  <si>
+    <t>D. Skull Island</t>
+  </si>
+  <si>
+    <t>A. best actor</t>
+  </si>
+  <si>
+    <t>In the 1951 science fiction movie, The Day The Earth Stood Still, what was the name of the robot?</t>
+  </si>
+  <si>
+    <t>A. Gort 
+B. Klaatu
+C. Robby
+D. Freddy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. Gort </t>
+  </si>
+  <si>
+    <t>A. Freddy
+B. Jason 
+C. Michael Myers
+D. He has no name</t>
+  </si>
+  <si>
+    <t> Will Smith first found critical praise in what film?</t>
+  </si>
+  <si>
+    <t>A. Six Degrees of Separation
+ B. Independence Day
+ C. Bad Boys
+ D. Jersey Girl</t>
+  </si>
+  <si>
+    <t>Widely considered the greatest american film ever made, Orson Welles was only 25 when he directed which of these?</t>
+  </si>
+  <si>
+    <t>A. War of the Worlds
+B.  Citizen Kane
+C. Chimes at Midnight
+D. A Touch of Evil</t>
+  </si>
+  <si>
+    <t>B.  Citizen Kane</t>
+  </si>
+  <si>
+    <t>A. Six Degrees of Separation</t>
+  </si>
+  <si>
+    <t>He has played Elvis, Jim Morrison and Batman.</t>
+  </si>
+  <si>
+    <t>A. George Clooney
+B. Micheal Keaton
+C. Christian Bale
+D. Val Kilmer</t>
+  </si>
+  <si>
+    <t>D. Val Kilmer</t>
+  </si>
+  <si>
+    <t>Who was NOT in "The Godfather"?</t>
+  </si>
+  <si>
+    <t>A. Al Pacino
+B. Robert De Niro
+C. Robert Duvall
+D. Sterling Hayden</t>
+  </si>
+  <si>
+    <t>B. Robert De Niro</t>
+  </si>
+  <si>
+    <t>What is the hometown in the Back To The Future movies?</t>
+  </si>
+  <si>
+    <t>B. Hill Valley</t>
+  </si>
+  <si>
+    <t>A. Pinedale
+B. Hill Valley
+C. Sunnyville
+D. Springfield</t>
+  </si>
+  <si>
+    <t>Who did Indiana Jones "steal" his nickname from?</t>
+  </si>
+  <si>
+    <t>A.His father
+B. His homestate
+C. His favorite literary character
+D. His dog</t>
+  </si>
+  <si>
+    <t>D. His dog</t>
+  </si>
+  <si>
+    <t>C. Leonardo DiCaprio</t>
+  </si>
+  <si>
+    <t>A. Brad Pitt
+B. Will Smith
+C. Leonardo DiCaprio
+D. George Clooney</t>
+  </si>
+  <si>
+    <t>A. 3
+B. 4
+C. 5
+D. 6</t>
+  </si>
+  <si>
+    <t>D. 6</t>
+  </si>
+  <si>
+    <t>A.Dodo
+B. Toto
+C. Todo
+D. Frodo</t>
+  </si>
+  <si>
+    <t>B. Toto</t>
+  </si>
+  <si>
+    <t>A. The Lion King
+B. Aladdin
+C. Pocahontas
+D. Beauty and the Beast</t>
+  </si>
+  <si>
+    <t>A. The Lion King</t>
+  </si>
+  <si>
+    <t>Movies</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>General Knowledge</t>
+  </si>
+  <si>
+    <t>Which one of the following permutations can be obtained the output using stack assuming that the input is the sequence 1,2,3,4,5 in that order ?</t>
+  </si>
+  <si>
+    <t>A. 3,4,5,1,2
+B.  3,4,5,2,1
+C. 1,5,2,3,4
+D. 5,4,3,1,2</t>
+  </si>
+  <si>
+    <t>The correct declaration of a integer named i is:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. int I;
+B. i = int;
+C. integer = I;
+D. int = I;
+</t>
+  </si>
+  <si>
+    <t>A. int I;</t>
+  </si>
+  <si>
+    <t>D. 5,4,3,1,2</t>
+  </si>
+  <si>
+    <t>All methods must have the following:</t>
+  </si>
+  <si>
+    <t>A. commas
+B. parenthesis
+C. quotes
+D. semicolons</t>
+  </si>
+  <si>
+    <t>B. parenthesis</t>
+  </si>
+  <si>
+    <t>Which is considered to be the computers short-term memory?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. REM
+B. ROM
+C. RAM
+D. RIM
+</t>
+  </si>
+  <si>
+    <t>C. RAM</t>
+  </si>
+  <si>
+    <t>The number of possible ordered trees with three nodes A,B,C is?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. 16
+B. 12
+C. 6
+D. 10
+</t>
+  </si>
+  <si>
+    <t>B. 12</t>
+  </si>
+  <si>
+    <t>Linked list are not suitable data structure of which one of the following problems ?</t>
+  </si>
+  <si>
+    <t>A. Insertion sort
+B.  Binary search
+C. Radix sort
+D. Polynomial manipulation</t>
+  </si>
+  <si>
+    <t>B.  Binary search</t>
+  </si>
+  <si>
+    <t>Which of the following statement is true ?</t>
+  </si>
+  <si>
+    <t>A. Optimal binary search tree construction can be performed efficiently using dynamic programming.
+B. Breath first search cannot be used to find converted components of a graph.
+C. Given the prefix and post fix walks over a binary tree.The binary tree cannot be uniquely constructed
+D. Depth first search can be used to find connected components of a graph.</t>
+  </si>
+  <si>
+    <t>A. Optimal binary search tree construction can be performed efficiently using dynamic programming.</t>
+  </si>
+  <si>
+    <t> Merge sort uses ?</t>
+  </si>
+  <si>
+    <t>A. Divide and conquer strategy
+B. Backtracking approach
+C. Heuristic search
+D. Greedy approach</t>
+  </si>
+  <si>
+    <t>A. Divide and conquer strategy</t>
+  </si>
+  <si>
+    <t>Which of the following is useful in traversing a given graph by breadth first search?</t>
+  </si>
+  <si>
+    <t>A. Stack
+B. Set
+C. List
+D. Queue</t>
+  </si>
+  <si>
+    <t>D. Queue</t>
+  </si>
+  <si>
+    <t>Which of the following is useful in implementing quick sort?</t>
+  </si>
+  <si>
+    <t>A. Stack</t>
+  </si>
+  <si>
+    <t>An IP address is a numeric quantity that identifies -</t>
+  </si>
+  <si>
+    <t>A. a network adapter to other devices on the network
+B. the manufacturer of a computer
+C. the physical location of a computer
+D. none of the above</t>
+  </si>
+  <si>
+    <t>A. a network adapter to other devices on the network</t>
+  </si>
+  <si>
+    <t>The postfix expression for * + a b - c d is?</t>
+  </si>
+  <si>
+    <t>A. ab + cd - *
+B. ab cd + - *
+C. ab + cd * -
+D. ab + - cd *</t>
+  </si>
+  <si>
+    <t>A. ab + cd - *</t>
+  </si>
+  <si>
+    <t>The number of swapping needed to sort numbers 8,22,7,9,31,19,5,13 in ascending order using bubble sort is ?</t>
+  </si>
+  <si>
+    <t>A.11
+B. 12 
+C. 13
+D. 14</t>
+  </si>
+  <si>
+    <t>D. 14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the brain of the computer?
+</t>
+  </si>
+  <si>
+    <t>A. Motherboard
+B. Memory
+C. CPU
+D. NIC</t>
+  </si>
+  <si>
+    <t>C. CPU</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Eiffel Tower is located where in Paris?</t>
+  </si>
+  <si>
+    <t>A. Bois de Boulogne
+B. Champ de Mars
+C. Jardin des Plantes
+D. Parc de Belleville</t>
+  </si>
+  <si>
+    <t>Which Apollo mission landed the first humans on the Moon?</t>
+  </si>
+  <si>
+    <t>A. Apollo 7
+B. Apollo 9
+C. Apollo 11
+D. Apollo 13</t>
+  </si>
+  <si>
+    <t>C. Apollo 11</t>
+  </si>
+  <si>
+    <t>B. Champ de Mars</t>
+  </si>
+  <si>
+    <t>The reactor at the site of the Chernobyl nuclear disaster is now in which country?</t>
+  </si>
+  <si>
+    <t>What is the name of the tallest structure ever built?</t>
+  </si>
+  <si>
+    <t>A. Burj Khalifa
+B. CN Tower
+C. Grollo Tower
+D. Taipei 101</t>
+  </si>
+  <si>
+    <t>A. Burj Khalifa</t>
+  </si>
+  <si>
+    <t>B.Ukraine</t>
+  </si>
+  <si>
+    <t>A.Slovakia
+B. Ukraine
+C. Hungary
+D. Russia</t>
+  </si>
+  <si>
+    <t>Who was the first American President to reside at The White House?</t>
+  </si>
+  <si>
+    <t>A. Abraham Lincoln
+B. George Washington
+C. John Adams
+D. Thomas Jefferson</t>
+  </si>
+  <si>
+    <t>C. John Adams</t>
+  </si>
+  <si>
+    <t>What name is given to a flock of geese on the ground?</t>
+  </si>
+  <si>
+    <t>A. Gaggle
+B. Gargle
+C. Giggle
+D. Goggle</t>
+  </si>
+  <si>
+    <t>A. Gaggle</t>
+  </si>
+  <si>
+    <t>Pittsburgh is a major city in which US state?</t>
+  </si>
+  <si>
+    <t>A. Delaware
+B. Maryland
+C. Minnesota
+D. Pennsylvania</t>
+  </si>
+  <si>
+    <t>D. Pennsylvania</t>
+  </si>
+  <si>
+    <t>Who wrote the 1969 autobiography I Know Why the Caged Bird Sings?</t>
+  </si>
+  <si>
+    <t>A. Maya Angelou
+B. Angela Carter
+C. Erica Jong
+D. Anne Rice</t>
+  </si>
+  <si>
+    <t>A. Maya Angelou</t>
+  </si>
+  <si>
+    <t>The small republic of San Marino is completely surrounded by which larger country?</t>
+  </si>
+  <si>
+    <t>A. India
+B. Iran
+C. Israel
+D. Italy</t>
+  </si>
+  <si>
+    <t>D. Italy</t>
+  </si>
+  <si>
+    <t>In US law enforcement agencies, what do the initials stand for in SWAT team?</t>
+  </si>
+  <si>
+    <t>A. Special War Against Terror
+B. Special Weapons And Tactics
+C. Special Women's Assimilation Test
+D. Special Wrongdoers' Arrest Treatment</t>
+  </si>
+  <si>
+    <t>B. Special Weapons And Tactics</t>
+  </si>
+  <si>
+    <t>What type of creature is a gecko?</t>
+  </si>
+  <si>
+    <t>A. Bird
+B. Fish
+C. Lizard
+D. Monkey</t>
+  </si>
+  <si>
+    <t>C. Lizard</t>
+  </si>
+  <si>
+    <t>Which US president once claimed to have been 'misunderestimated'?</t>
+  </si>
+  <si>
+    <t>A. George W Bush
+B. Jimmy Carter
+C. Gerald Ford
+D. Ronald Reagan</t>
+  </si>
+  <si>
+    <t>A. George W Bush</t>
+  </si>
+  <si>
+    <t>What colour is the pigment chlorophyll?</t>
+  </si>
+  <si>
+    <t>A. Blue
+B. Green
+C. Red
+D. Yellow</t>
+  </si>
+  <si>
+    <t>B. Green</t>
+  </si>
+  <si>
+    <t>Which animal was once called the camelopard?</t>
+  </si>
+  <si>
+    <t>A. Camel
+B. Giraffe
+C. Leopard
+D. Rhinoceros</t>
+  </si>
+  <si>
+    <t>B. Giraffe</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> To the rest of Americans, the term 'Yankee' is used to describe someone from which part of the country?</t>
+  </si>
+  <si>
+    <t>A. Northeast
+B. Northwest
+C. Southeast
+D. Southwest</t>
+  </si>
+  <si>
+    <t>A. Northeast</t>
+  </si>
+  <si>
+    <t>who made the quote i ll be back famous?</t>
+  </si>
+  <si>
+    <t>A. Sylvester Stallone
+B. Leonardo DiCaprio
+C. Arnold Schwarzenegger
+D. Al Pacino</t>
+  </si>
+  <si>
+    <t>C. Arnold Schwarzenegger</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> What type of software is free to try but then you have to buy?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. Commercial
+B. Shareware
+C. Opensource
+D. Microsoft Word
+</t>
+  </si>
+  <si>
+    <t>B. Shareware</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,9 +611,62 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF555555"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -117,20 +689,53 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -411,74 +1016,516 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" customWidth="1"/>
+    <col min="1" max="1" width="36.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="1"/>
+    <col min="5" max="5" width="34.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="36.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="1"/>
+    <col min="9" max="9" width="37.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="29.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="E1" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="18" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="18" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="18" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="18" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="18" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="18" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="6"/>
+      <c r="B16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+    </row>
+    <row r="33" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+    </row>
+    <row r="34" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
+    </row>
+    <row r="37" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Questions.xlsx
+++ b/Questions.xlsx
@@ -1018,8 +1018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
